--- a/CalculatingFF/excel1.xlsx
+++ b/CalculatingFF/excel1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\для проекта\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\vsProj\CalculatingFF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538D6858-0EF6-4004-B2BC-851404E09F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D837BD-B202-48C1-B807-3A6376B16A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
   <si>
     <t>alfa</t>
   </si>
@@ -199,9 +199,6 @@
   </si>
   <si>
     <t>S2c</t>
-  </si>
-  <si>
-    <t>эксп</t>
   </si>
   <si>
     <t>13334д</t>
@@ -406,21 +403,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -430,21 +412,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>128.05000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>72.819999999999993</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>67.34</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>69.08</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>103.73</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -477,21 +444,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -501,21 +453,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>115.86</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>66.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60.89</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>62.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>93.37</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -548,21 +485,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -572,21 +494,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>103.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>59.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>54.38</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>55.72</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>83.24</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -619,21 +526,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -643,21 +535,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>91.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>52.15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47.83</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>49.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>73.069999999999993</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -699,21 +576,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -723,21 +585,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>78.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>62.6</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -774,21 +621,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -798,18 +630,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>21.11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42.03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45.43</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>65.959999999999994</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1528,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1539,7 +1359,7 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -1563,7 +1383,7 @@
         <v>0.22313016014842982</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1579,7 +1399,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1588,13 +1408,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="F3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" t="s">
         <v>62</v>
       </c>
-      <c r="G3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1610,7 +1430,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1626,12 +1446,12 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -1641,7 +1461,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1657,12 +1477,12 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
@@ -1672,18 +1492,18 @@
         <v>#VALUE!</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -1693,12 +1513,12 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
@@ -1708,12 +1528,12 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
@@ -1723,12 +1543,12 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -1738,18 +1558,18 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1758,7 +1578,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1766,26 +1586,8 @@
         <f>-0.5*(B8-B9)*SIN(2*(B6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15">
-        <v>10</v>
-      </c>
-      <c r="H15">
-        <v>15</v>
-      </c>
-      <c r="I15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1793,29 +1595,8 @@
         <f>-0.5*(B10-B11)*SIN(2*(B6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>21.11</v>
-      </c>
-      <c r="E16">
-        <v>78.8</v>
-      </c>
-      <c r="F16">
-        <v>91.2</v>
-      </c>
-      <c r="G16">
-        <v>103.3</v>
-      </c>
-      <c r="H16">
-        <v>115.86</v>
-      </c>
-      <c r="I16">
-        <v>128.05000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1823,26 +1604,8 @@
         <f>SIN(2*B6-B2)-0.5*B16*SIN(2*B6)/COS(B2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C17">
-        <v>30</v>
-      </c>
-      <c r="E17">
-        <v>45.3</v>
-      </c>
-      <c r="F17">
-        <v>52.15</v>
-      </c>
-      <c r="G17">
-        <v>59.3</v>
-      </c>
-      <c r="H17">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="I17">
-        <v>72.819999999999993</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1850,29 +1613,8 @@
         <f>COS(2*B6-B2)-0.5*B16*COS(2*B6)/COS(B2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C18">
-        <v>45</v>
-      </c>
-      <c r="D18">
-        <v>42.03</v>
-      </c>
-      <c r="E18">
-        <v>41.3</v>
-      </c>
-      <c r="F18">
-        <v>47.83</v>
-      </c>
-      <c r="G18">
-        <v>54.38</v>
-      </c>
-      <c r="H18">
-        <v>60.89</v>
-      </c>
-      <c r="I18">
-        <v>67.34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1880,56 +1622,14 @@
         <f>-B3*B4*B14*SIN(B2)*SIN(B2)+B4*B4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C19">
-        <v>60</v>
-      </c>
-      <c r="D19">
-        <v>45.43</v>
-      </c>
-      <c r="E19">
-        <v>42.5</v>
-      </c>
-      <c r="F19">
-        <v>49.2</v>
-      </c>
-      <c r="G19">
-        <v>55.72</v>
-      </c>
-      <c r="H19">
-        <v>62.4</v>
-      </c>
-      <c r="I19">
-        <v>69.08</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
       <c r="B20" t="e">
         <f>COS(B2)/(1-0.5*B16)</f>
         <v>#VALUE!</v>
-      </c>
-      <c r="C20">
-        <v>90</v>
-      </c>
-      <c r="D20">
-        <v>65.959999999999994</v>
-      </c>
-      <c r="E20">
-        <v>62.6</v>
-      </c>
-      <c r="F20">
-        <v>73.069999999999993</v>
-      </c>
-      <c r="G20">
-        <v>83.24</v>
-      </c>
-      <c r="H20">
-        <v>93.37</v>
-      </c>
-      <c r="I20">
-        <v>103.73</v>
       </c>
     </row>
   </sheetData>
